--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Inflectra\InflectraGitProjects\rapise-dynamics365-crm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEAD549-F875-4706-9C3C-7707CB6F9B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE01FC-1354-4001-8FB3-81768294E6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2810" yWindow="540" windowWidth="19180" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>https://&lt;company&gt;.crm.dynamics.com/main.aspx?appid=&lt;appid&gt;</t>
+  </si>
+  <si>
+    <t>Dynamics365Url</t>
+  </si>
+  <si>
+    <t>https://&lt;company&gt;.crm.dynamics.com/main.aspx</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,19 +393,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
